--- a/data/trans_dic/P29_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>47,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>36,55%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,83; 52,16</t>
+          <t>27,07; 74,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,03; 37,98</t>
+          <t>9,71; 39,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,04; 46,1</t>
+          <t>9,79; 42,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,7; 32,69</t>
+          <t>3,25; 24,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,71; 52,31</t>
+          <t>15,14; 41,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 35,34</t>
+          <t>17,64; 46,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,53; 39,77</t>
+          <t>19,56; 48,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 42,35</t>
+          <t>19,48; 56,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,95; 37,73</t>
+          <t>24,81; 55,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,2; 38,03</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18,49; 42,15</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 41,92</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,3; 37,84</t>
+          <t>19,66; 35,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,46; 39,77</t>
+          <t>23,55; 40,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 40,63</t>
+          <t>26,56; 46,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 24,31</t>
+          <t>14,14; 29,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,59; 28,2</t>
+          <t>13,49; 25,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 30,02</t>
+          <t>14,35; 26,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,07</t>
+          <t>13,23; 24,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,28; 31,91</t>
+          <t>20,03; 33,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,01; 33,8</t>
+          <t>18,51; 27,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 31,13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 34,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 29,56</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,15; 32,32</t>
+          <t>19,23; 35,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 33,23</t>
+          <t>19,91; 35,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,96; 32,44</t>
+          <t>19,14; 34,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,07</t>
+          <t>20,03; 36,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 17,63</t>
+          <t>5,02; 13,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,64</t>
+          <t>7,23; 17,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,16</t>
+          <t>6,35; 14,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 23,16</t>
+          <t>7,2; 17,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 24,27</t>
+          <t>12,55; 21,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,0; 23,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 21,53</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 24,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,13; 33,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,21; 34,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,6; 36,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 26,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 25,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 25,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,11; 28,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 29,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30,77%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24,81; 37,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23,63; 34,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24,63; 38,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 27,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 19,84</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14,54; 22,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 21,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 29,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 26,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 25,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 28,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 26,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>60977</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24286</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29803</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21289</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38207</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35293</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39124</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>73399</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>99184</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>59580</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68927</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>94688</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34884; 95727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10243; 41528</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11178; 48217</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5670; 42856</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21568; 59468</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20372; 53652</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23934; 59139</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41687; 121113</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>67313; 150780</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38011; 84024</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43740; 99705</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54591; 162925</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>116068</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>118404</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>141141</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>108319</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>86848</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>75331</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>70334</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>132779</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>202916</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>193735</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>211474</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>241098</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>83676; 149561</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88612; 152073</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>106089; 186731</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>72123; 149205</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62678; 116667</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>54666; 100030</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49641; 92857</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>99064; 165809</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>164764; 248310</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>159194; 235717</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>169292; 266083</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>195614; 297028</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>89633</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>75043</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>71828</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>98878</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37489</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39191</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32580</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44382</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>127122</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>114234</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>104409</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>143260</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>64021; 118260</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>56213; 99885</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52698; 94275</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70754; 128585</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21505; 57317</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24933; 61112</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20799; 48909</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28515; 69797</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95532; 162928</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>87779; 145285</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>77236; 129760</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>109732; 181560</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>266678</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>217733</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>242771</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>228486</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>162545</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>149815</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>142039</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>250560</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>429223</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>367549</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>384810</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>479046</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>220202; 335328</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>180550; 264538</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>194343; 301807</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>171599; 280950</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>128752; 205423</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>122277; 188716</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>112800; 177497</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>200421; 321385</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>366198; 513276</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>312518; 415474</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>332915; 461792</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>402901; 565302</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
